--- a/attack-website/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
+++ b/attack-website/docs/mobile-attack-v15.1/mobile-attack-v15.1-groups.xlsx
@@ -419,7 +419,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),</t>
+    <t>(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: sophos_android_apt_spyware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
